--- a/hebrewOutputs/hebrew82Comperation_5_Common_alpha=0.1.xlsx
+++ b/hebrewOutputs/hebrew82Comperation_5_Common_alpha=0.1.xlsx
@@ -112,135 +112,138 @@
     <t>ושחררו אותנו לדרכנו בבקשה</t>
   </si>
   <si>
+    <t>יעל קודם כל לי קוראים דוק</t>
+  </si>
+  <si>
+    <t>אני רופא כאן במחלקה</t>
+  </si>
+  <si>
+    <t>חלק מהצוות שמטפלים בבן שלך ביואב</t>
+  </si>
+  <si>
+    <t>כן</t>
+  </si>
+  <si>
+    <t>bc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אה </t>
+  </si>
+  <si>
+    <t>אה לפני שאני אתחיל לספר לך בואי תגידי לי קצת מה את יודעת על המצב של יואב</t>
+  </si>
+  <si>
+    <t>?opinion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ספרי לי למה הגעתם  </t>
+  </si>
+  <si>
+    <t>ומה את יודעת</t>
+  </si>
+  <si>
+    <t xml:space="preserve">הוא פשוט קצת לא הרגיש טוב </t>
+  </si>
+  <si>
+    <t>זה קורה לילדים</t>
+  </si>
+  <si>
+    <t>קצת כאב בטן קצת הקיא</t>
+  </si>
+  <si>
+    <t>קצת זה בסדר זה קורה</t>
+  </si>
+  <si>
+    <t>אני יודעת פשוט אתה יודע</t>
+  </si>
+  <si>
+    <t>concern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">תנו את מה שצריך אנטיביוטקיה </t>
+  </si>
+  <si>
+    <t xml:space="preserve">אני לא יודעת מה עושים במקרים האלה </t>
+  </si>
+  <si>
+    <t>וזהו ובוא, בוא, בוא נצא לדרכנו</t>
+  </si>
+  <si>
+    <t>יש לי פשוט יום ממש ארוך ואני גם ממהרת לעבודה ואני פה</t>
+  </si>
+  <si>
+    <t>אני מאמין לך</t>
+  </si>
+  <si>
+    <t>legit</t>
+  </si>
+  <si>
+    <t>אבל בואי נעשה קצת סדר בדברים</t>
+  </si>
+  <si>
+    <t>orient</t>
+  </si>
+  <si>
+    <t>תראי יואב באמת כמו שאת אומרת הגיע עם חולשה והוא גם הקיא ועם כאבי בטן כמה ימים</t>
+  </si>
+  <si>
+    <t>אנחנו עשינו כמה בדיקות איך שהוא הגיע אלינו בדקנו חלק מהבדיקות שגרתיות בדיקת דם</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אה וגילינו שיש לו סוכר מאוד גבוה בדם </t>
+  </si>
+  <si>
+    <t>לילד בגיל שלו בן חמש סוכר גבוהה בדם זה לא משהו שהוא כל כך נורמלי</t>
+  </si>
+  <si>
+    <t>ולכן בדקנו שוב עשינו עוד כמה בדיקות וראינו שהסוכר עומד ברמה גבוהה</t>
+  </si>
+  <si>
+    <t>את בסדר? מבינה?</t>
+  </si>
+  <si>
+    <t>?understand</t>
+  </si>
+  <si>
+    <t>מה זה אומר?</t>
+  </si>
+  <si>
+    <t>רמת הסוכר הגבוהה שלו אה מעידה בעצם על זה שהוא סובל ממחלה שנקראת סכרת נעורים</t>
+  </si>
+  <si>
+    <t>אני הסביר לך מזה אומר</t>
+  </si>
+  <si>
+    <t>סכרת נעורים מצב שבו קשה לגוף להתמודד עם רמות הסוכר הוא לא מפריש אינסולין שזה מה שאמור לקלוט את הסוכר</t>
+  </si>
+  <si>
+    <t xml:space="preserve">בגילו </t>
+  </si>
+  <si>
+    <t>זה בסדר אני אסביר לך בדיוק את כל השלבים</t>
+  </si>
+  <si>
+    <t>את חושבת שצריך לקבל אנטיביוטיקה ויכול להיות שהיה לו איזשהו זיהום</t>
+  </si>
+  <si>
+    <t>checks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אז לא מדובר באיזשהו זיהום </t>
+  </si>
+  <si>
+    <t>הטיפול הוא לא טיפול אנטיביוטי הטיפול שהוא צריך זה בעצם תחליף לאינסולין</t>
+  </si>
+  <si>
+    <t>gives-thera</t>
+  </si>
+  <si>
+    <t>יש לו סכרת</t>
+  </si>
+  <si>
     <t>disagree</t>
   </si>
   <si>
-    <t>יעל קודם כל לי קוראים דוק</t>
-  </si>
-  <si>
-    <t>אני רופא כאן במחלקה</t>
-  </si>
-  <si>
-    <t>חלק מהצוות שמטפלים בבן שלך ביואב</t>
-  </si>
-  <si>
-    <t>כן</t>
-  </si>
-  <si>
-    <t>bc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">אה </t>
-  </si>
-  <si>
-    <t>אה לפני שאני אתחיל לספר לך בואי תגידי לי קצת מה את יודעת על המצב של יואב</t>
-  </si>
-  <si>
-    <t>?opinion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ספרי לי למה הגעתם  </t>
-  </si>
-  <si>
-    <t>ומה את יודעת</t>
-  </si>
-  <si>
-    <t xml:space="preserve">הוא פשוט קצת לא הרגיש טוב </t>
-  </si>
-  <si>
-    <t>זה קורה לילדים</t>
-  </si>
-  <si>
-    <t>קצת כאב בטן קצת הקיא</t>
-  </si>
-  <si>
-    <t>קצת זה בסדר זה קורה</t>
-  </si>
-  <si>
-    <t>אני יודעת פשוט אתה יודע</t>
-  </si>
-  <si>
-    <t xml:space="preserve">תנו את מה שצריך אנטיביוטקיה </t>
-  </si>
-  <si>
-    <t xml:space="preserve">אני לא יודעת מה עושים במקרים האלה </t>
-  </si>
-  <si>
-    <t>וזהו ובוא, בוא, בוא נצא לדרכנו</t>
-  </si>
-  <si>
-    <t>יש לי פשוט יום ממש ארוך ואני גם ממהרת לעבודה ואני פה</t>
-  </si>
-  <si>
-    <t>אני מאמין לך</t>
-  </si>
-  <si>
-    <t>legit</t>
-  </si>
-  <si>
-    <t>אבל בואי נעשה קצת סדר בדברים</t>
-  </si>
-  <si>
-    <t>orient</t>
-  </si>
-  <si>
-    <t>תראי יואב באמת כמו שאת אומרת הגיע עם חולשה והוא גם הקיא ועם כאבי בטן כמה ימים</t>
-  </si>
-  <si>
-    <t>אנחנו עשינו כמה בדיקות איך שהוא הגיע אלינו בדקנו חלק מהבדיקות שגרתיות בדיקת דם</t>
-  </si>
-  <si>
-    <t xml:space="preserve">אה וגילינו שיש לו סוכר מאוד גבוה בדם </t>
-  </si>
-  <si>
-    <t>לילד בגיל שלו בן חמש סוכר גבוהה בדם זה לא משהו שהוא כל כך נורמלי</t>
-  </si>
-  <si>
-    <t>ולכן בדקנו שוב עשינו עוד כמה בדיקות וראינו שהסוכר עומד ברמה גבוהה</t>
-  </si>
-  <si>
-    <t>את בסדר? מבינה?</t>
-  </si>
-  <si>
-    <t>?understand</t>
-  </si>
-  <si>
-    <t>מה זה אומר?</t>
-  </si>
-  <si>
-    <t>רמת הסוכר הגבוהה שלו אה מעידה בעצם על זה שהוא סובל ממחלה שנקראת סכרת נעורים</t>
-  </si>
-  <si>
-    <t>אני הסביר לך מזה אומר</t>
-  </si>
-  <si>
-    <t>סכרת נעורים מצב שבו קשה לגוף להתמודד עם רמות הסוכר הוא לא מפריש אינסולין שזה מה שאמור לקלוט את הסוכר</t>
-  </si>
-  <si>
-    <t xml:space="preserve">בגילו </t>
-  </si>
-  <si>
-    <t>זה בסדר אני אסביר לך בדיוק את כל השלבים</t>
-  </si>
-  <si>
-    <t>את חושבת שצריך לקבל אנטיביוטיקה ויכול להיות שהיה לו איזשהו זיהום</t>
-  </si>
-  <si>
-    <t>checks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">אז לא מדובר באיזשהו זיהום </t>
-  </si>
-  <si>
-    <t>הטיפול הוא לא טיפול אנטיביוטי הטיפול שהוא צריך זה בעצם תחליף לאינסולין</t>
-  </si>
-  <si>
-    <t>gives-thera</t>
-  </si>
-  <si>
-    <t>יש לו סכרת</t>
-  </si>
-  <si>
     <t>יש לו סכרת, כן</t>
   </si>
   <si>
@@ -305,9 +308,6 @@
   </si>
   <si>
     <t>אני בשוק אני לא מבינה איך כאלו מאיפה זה בא</t>
-  </si>
-  <si>
-    <t>concern</t>
   </si>
   <si>
     <t xml:space="preserve">איך פתאום - סכרת - כי מה? </t>
@@ -864,7 +864,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -878,7 +878,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -934,7 +934,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
@@ -1018,7 +1018,7 @@
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>
@@ -1074,7 +1074,7 @@
         <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
@@ -1082,13 +1082,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
@@ -1096,7 +1096,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
@@ -1124,7 +1124,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
@@ -1138,10 +1138,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" t="s">
         <v>36</v>
-      </c>
-      <c r="B23" t="s">
-        <v>37</v>
       </c>
       <c r="C23" t="s">
         <v>6</v>
@@ -1152,7 +1152,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
@@ -1166,10 +1166,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" t="s">
         <v>39</v>
-      </c>
-      <c r="B25" t="s">
-        <v>40</v>
       </c>
       <c r="C25" t="s">
         <v>6</v>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
         <v>12</v>
@@ -1194,10 +1194,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" t="s">
         <v>6</v>
@@ -1208,7 +1208,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B28" t="s">
         <v>23</v>
@@ -1222,7 +1222,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
         <v>20</v>
@@ -1236,7 +1236,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B30" t="s">
         <v>23</v>
@@ -1250,7 +1250,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B31" t="s">
         <v>20</v>
@@ -1264,13 +1264,13 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B32" t="s">
         <v>22</v>
       </c>
       <c r="C32" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="D32" t="s">
         <v>7</v>
@@ -1284,7 +1284,7 @@
         <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="D33" t="s">
         <v>7</v>
@@ -1326,7 +1326,7 @@
         <v>20</v>
       </c>
       <c r="C36" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="D36" t="s">
         <v>7</v>
@@ -1354,7 +1354,7 @@
         <v>55</v>
       </c>
       <c r="C38" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D38" t="s">
         <v>9</v>
@@ -1376,10 +1376,10 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" t="s">
         <v>36</v>
-      </c>
-      <c r="B40" t="s">
-        <v>37</v>
       </c>
       <c r="C40" t="s">
         <v>6</v>
@@ -1592,7 +1592,7 @@
         <v>70</v>
       </c>
       <c r="C55" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="D55" t="s">
         <v>7</v>
@@ -1600,10 +1600,10 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B56" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C56" t="s">
         <v>23</v>
@@ -1614,7 +1614,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B57" t="s">
         <v>23</v>
@@ -1628,7 +1628,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B58" t="s">
         <v>73</v>
@@ -1642,7 +1642,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B59" t="s">
         <v>23</v>
@@ -1656,10 +1656,10 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B60" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C60" t="s">
         <v>6</v>
@@ -1670,10 +1670,10 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B61" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C61" t="s">
         <v>6</v>
@@ -1684,10 +1684,10 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
+        <v>84</v>
+      </c>
+      <c r="B62" t="s">
         <v>83</v>
-      </c>
-      <c r="B62" t="s">
-        <v>82</v>
       </c>
       <c r="C62" t="s">
         <v>6</v>
@@ -1698,7 +1698,7 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B63" t="s">
         <v>12</v>
@@ -1712,7 +1712,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B64" t="s">
         <v>23</v>
@@ -1726,7 +1726,7 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B65" t="s">
         <v>23</v>
@@ -1740,7 +1740,7 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B66" t="s">
         <v>23</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B67" t="s">
         <v>14</v>
@@ -1768,13 +1768,13 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B68" t="s">
         <v>23</v>
       </c>
       <c r="C68" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D68" t="s">
         <v>9</v>
@@ -1782,7 +1782,7 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B69" t="s">
         <v>14</v>
@@ -1796,7 +1796,7 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B70" t="s">
         <v>14</v>
@@ -1810,13 +1810,13 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B71" t="s">
         <v>22</v>
       </c>
       <c r="C71" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D71" t="s">
         <v>9</v>
@@ -1824,13 +1824,13 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B72" t="s">
         <v>22</v>
       </c>
       <c r="C72" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D72" t="s">
         <v>9</v>
@@ -1838,10 +1838,10 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B73" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C73" t="s">
         <v>6</v>
@@ -1852,10 +1852,10 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B74" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="C74" t="s">
         <v>12</v>
@@ -2040,7 +2040,7 @@
         <v>14</v>
       </c>
       <c r="C87" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D87" t="s">
         <v>9</v>
@@ -2082,7 +2082,7 @@
         <v>22</v>
       </c>
       <c r="C90" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D90" t="s">
         <v>9</v>
@@ -2110,7 +2110,7 @@
         <v>14</v>
       </c>
       <c r="C92" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D92" t="s">
         <v>9</v>
@@ -2149,7 +2149,7 @@
         <v>120</v>
       </c>
       <c r="B95" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="C95" t="s">
         <v>20</v>
@@ -2163,7 +2163,7 @@
         <v>121</v>
       </c>
       <c r="B96" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="C96" t="s">
         <v>6</v>
@@ -2247,10 +2247,10 @@
         <v>129</v>
       </c>
       <c r="B102" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="C102" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="D102" t="s">
         <v>7</v>
@@ -2261,7 +2261,7 @@
         <v>130</v>
       </c>
       <c r="B103" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C103" t="s">
         <v>6</v>
@@ -2275,7 +2275,7 @@
         <v>131</v>
       </c>
       <c r="B104" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C104" t="s">
         <v>20</v>
@@ -2373,7 +2373,7 @@
         <v>139</v>
       </c>
       <c r="B111" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C111" t="s">
         <v>6</v>
@@ -2415,7 +2415,7 @@
         <v>142</v>
       </c>
       <c r="B114" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C114" t="s">
         <v>6</v>
@@ -2443,7 +2443,7 @@
         <v>142</v>
       </c>
       <c r="B116" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C116" t="s">
         <v>6</v>
@@ -2471,7 +2471,7 @@
         <v>145</v>
       </c>
       <c r="B118" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C118" t="s">
         <v>6</v>
@@ -2502,7 +2502,7 @@
         <v>62</v>
       </c>
       <c r="C120" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D120" t="s">
         <v>9</v>
@@ -2597,7 +2597,7 @@
         <v>154</v>
       </c>
       <c r="B127" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C127" t="s">
         <v>6</v>
@@ -2611,7 +2611,7 @@
         <v>155</v>
       </c>
       <c r="B128" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C128" t="s">
         <v>6</v>
@@ -2625,10 +2625,10 @@
         <v>156</v>
       </c>
       <c r="B129" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="C129" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D129" t="s">
         <v>7</v>
@@ -2653,7 +2653,7 @@
         <v>158</v>
       </c>
       <c r="B131" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C131" t="s">
         <v>6</v>
